--- a/HojeSomaSE.xlsx
+++ b/HojeSomaSE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murilo.dores\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MuriloAlves\.dev\Excell_Avancado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A248E-C47D-4A20-AF6C-C7206E805A28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4A45E-AA1B-4A41-91F5-65B2D44D5FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="1" xr2:uid="{B04C5EE7-A22C-41F3-A610-F48A1FA1E2D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Data de Hoje</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>RELATÓRIO DE VENDAS</t>
+  </si>
+  <si>
+    <t>RELATÓRIO DE VENDAS2</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -177,6 +180,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -619,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134484AC-A46C-4E40-AB05-66233F507660}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,9 +641,10 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -653,8 +659,13 @@
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -683,8 +694,17 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45365</v>
       </c>
@@ -701,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="5">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F14" si="0">D3*E3</f>
         <v>108</v>
       </c>
       <c r="G3" s="8"/>
@@ -716,8 +736,19 @@
         <f>SUMIFS($F$3:$F$14,$B$3:$B$14,H3,$C$3:$C$14,$J$2)</f>
         <v>378</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUMPRODUCT(($B$3:$B$14=L3)*($C$3:$C$14=$M$2)*($D$3:$D$14)*($E$3:$E$14))</f>
+        <v>198</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUMPRODUCT(($B$3:$B$14=L3)*($C$3:$C$14=$N$2)*($D$3:$D$14)*($E$3:$E$14))</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45366</v>
       </c>
@@ -734,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="5">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G4" s="8"/>
@@ -742,15 +773,26 @@
         <v>17</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I5" si="0">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$I$2)</f>
+        <f t="shared" ref="I4:I5" si="1">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$I$2)</f>
         <v>120</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J5" si="1">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$J$2)</f>
+        <f t="shared" ref="J4:J5" si="2">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$J$2)</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M5" si="3">SUMPRODUCT(($B$3:$B$14=L4)*($C$3:$C$14=$M$2)*($D$3:$D$14)*($E$3:$E$14))</f>
+        <v>120</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N5" si="4">SUMPRODUCT(($B$3:$B$14=L4)*($C$3:$C$14=$N$2)*($D$3:$D$14)*($E$3:$E$14))</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45363</v>
       </c>
@@ -767,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="G5" s="8"/>
@@ -775,15 +817,26 @@
         <v>18</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45366</v>
       </c>
@@ -800,12 +853,12 @@
         <v>6</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45544</v>
       </c>
@@ -822,12 +875,12 @@
         <v>8</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45537</v>
       </c>
@@ -844,12 +897,12 @@
         <v>8</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45547</v>
       </c>
@@ -866,12 +919,12 @@
         <v>8</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45551</v>
       </c>
@@ -888,12 +941,12 @@
         <v>8</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45530</v>
       </c>
@@ -910,12 +963,12 @@
         <v>13</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45527</v>
       </c>
@@ -932,11 +985,11 @@
         <v>13</v>
       </c>
       <c r="F12" s="5">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45566</v>
       </c>
@@ -953,11 +1006,11 @@
         <v>13</v>
       </c>
       <c r="F13" s="5">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45574</v>
       </c>
@@ -974,15 +1027,22 @@
         <v>13</v>
       </c>
       <c r="F14" s="5">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{457D22A4-0C4C-447A-8011-9C1B790FA0E4}"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -990,17 +1050,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Indentidadevisualaula4 xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc" xsi:nil="true"/>
-    <AULASESCRITAS xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1259,21 +1314,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Indentidadevisualaula4 xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc" xsi:nil="true"/>
+    <AULASESCRITAS xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B68CD9-6BE8-4E5B-B1AF-081C36CBBFA4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A1C825-A8EC-419E-A2DC-75FD2698093A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="86243fb6-e625-4153-bf24-3dbb8808cb3e"/>
-    <ds:schemaRef ds:uri="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1298,9 +1355,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A1C825-A8EC-419E-A2DC-75FD2698093A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B68CD9-6BE8-4E5B-B1AF-081C36CBBFA4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="86243fb6-e625-4153-bf24-3dbb8808cb3e"/>
+    <ds:schemaRef ds:uri="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/HojeSomaSE.xlsx
+++ b/HojeSomaSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MuriloAlves\.dev\Excell_Avancado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4A45E-AA1B-4A41-91F5-65B2D44D5FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AE38FC-3C4A-4285-A6B9-516472E6FD3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="1" xr2:uid="{B04C5EE7-A22C-41F3-A610-F48A1FA1E2D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{B04C5EE7-A22C-41F3-A610-F48A1FA1E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="DataGerNome" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Data de Hoje</t>
   </si>
@@ -624,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134484AC-A46C-4E40-AB05-66233F507660}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,11 +640,12 @@
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -658,14 +659,12 @@
         <v>20</v>
       </c>
       <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -691,20 +690,14 @@
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45365</v>
       </c>
@@ -732,23 +725,15 @@
         <f>SUMIFS($F$3:$F$14,$B$3:$B$14,H3,$C$3:$C$14,$I$2)</f>
         <v>198</v>
       </c>
-      <c r="J3" s="4">
-        <f>SUMIFS($F$3:$F$14,$B$3:$B$14,H3,$C$3:$C$14,$J$2)</f>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUMPRODUCT(($B$3:$B$14=K3)*($C$3:$C$14=$L$2)*($D$3:$D$14)*($E$3:$E$14))</f>
         <v>378</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="4">
-        <f>SUMPRODUCT(($B$3:$B$14=L3)*($C$3:$C$14=$M$2)*($D$3:$D$14)*($E$3:$E$14))</f>
-        <v>198</v>
-      </c>
-      <c r="N3" s="4">
-        <f>SUMPRODUCT(($B$3:$B$14=L3)*($C$3:$C$14=$N$2)*($D$3:$D$14)*($E$3:$E$14))</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45366</v>
       </c>
@@ -776,23 +761,15 @@
         <f t="shared" ref="I4:I5" si="1">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$I$2)</f>
         <v>120</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J5" si="2">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$J$2)</f>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4">
+        <f>SUMPRODUCT(($B$3:$B$14=K4)*($C$3:$C$14=$L$2)*($D$3:$D$14)*($E$3:$E$14))</f>
         <v>360</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M5" si="3">SUMPRODUCT(($B$3:$B$14=L4)*($C$3:$C$14=$M$2)*($D$3:$D$14)*($E$3:$E$14))</f>
-        <v>120</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" ref="N4:N5" si="4">SUMPRODUCT(($B$3:$B$14=L4)*($C$3:$C$14=$N$2)*($D$3:$D$14)*($E$3:$E$14))</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45363</v>
       </c>
@@ -820,23 +797,15 @@
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="J5" s="4">
-        <f t="shared" si="2"/>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUMPRODUCT(($B$3:$B$14=K5)*($C$3:$C$14=$L$2)*($D$3:$D$14)*($E$3:$E$14))</f>
         <v>78</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="3"/>
-        <v>208</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45366</v>
       </c>
@@ -858,7 +827,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45544</v>
       </c>
@@ -880,7 +849,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45537</v>
       </c>
@@ -902,7 +871,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45547</v>
       </c>
@@ -924,7 +893,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45551</v>
       </c>
@@ -946,7 +915,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45530</v>
       </c>
@@ -968,7 +937,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45527</v>
       </c>
@@ -989,7 +958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45566</v>
       </c>
@@ -1010,7 +979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45574</v>
       </c>
@@ -1031,18 +1000,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{457D22A4-0C4C-447A-8011-9C1B790FA0E4}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HojeSomaSE.xlsx
+++ b/HojeSomaSE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MuriloAlves\.dev\Excell_Avancado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MuriloAlves\.git\Excell_Avancado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AE38FC-3C4A-4285-A6B9-516472E6FD3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96094F-004E-4397-B911-F800C1781376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{B04C5EE7-A22C-41F3-A610-F48A1FA1E2D1}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <definedName name="Dia">DataGerNome!$E$3:$E$5</definedName>
     <definedName name="DiasTrabalhados">DataGerNome!$I$3:$I$5</definedName>
     <definedName name="Mês">DataGerNome!$F$3:$F$5</definedName>
+    <definedName name="Tabela1">SomaSes!$A$2:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Data de Hoje</t>
   </si>
@@ -99,6 +100,12 @@
   </si>
   <si>
     <t>RELATÓRIO DE VENDAS2</t>
+  </si>
+  <si>
+    <t>MédiaSE</t>
+  </si>
+  <si>
+    <t>MédiaSES</t>
   </si>
 </sst>
 </file>
@@ -160,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -174,14 +181,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -521,7 +530,7 @@
       </c>
       <c r="B1" s="2">
         <f ca="1">TODAY()</f>
-        <v>45702</v>
+        <v>45705</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -624,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134484AC-A46C-4E40-AB05-66233F507660}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,28 +652,38 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="12"/>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -696,8 +715,19 @@
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="14">
+        <f>ROUND(AVERAGEIF($B$3:$B$14,N2,$D$3:$D$14),2)</f>
+        <v>24</v>
+      </c>
+      <c r="P2" s="1">
+        <f>AVERAGEIFS($D$3:$D$14,$B$3:$B$14,N2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45365</v>
       </c>
@@ -732,8 +762,19 @@
         <f>SUMPRODUCT(($B$3:$B$14=K3)*($C$3:$C$14=$L$2)*($D$3:$D$14)*($E$3:$E$14))</f>
         <v>378</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="14">
+        <f t="shared" ref="O3:O4" si="1">ROUND(AVERAGEIF($B$3:$B$14,N3,$D$3:$D$14),2)</f>
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P4" si="2">AVERAGEIFS($D$3:$D$14,$B$3:$B$14,N3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45366</v>
       </c>
@@ -758,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I5" si="1">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$I$2)</f>
+        <f t="shared" ref="I4:I5" si="3">SUMIFS($F$3:$F$14,$B$3:$B$14,H4,$C$3:$C$14,$I$2)</f>
         <v>120</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -768,8 +809,19 @@
         <f>SUMPRODUCT(($B$3:$B$14=K4)*($C$3:$C$14=$L$2)*($D$3:$D$14)*($E$3:$E$14))</f>
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45363</v>
       </c>
@@ -794,7 +846,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -805,7 +857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45366</v>
       </c>
@@ -827,7 +879,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45544</v>
       </c>
@@ -849,7 +901,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45537</v>
       </c>
@@ -871,7 +923,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45547</v>
       </c>
@@ -893,7 +945,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45551</v>
       </c>
@@ -915,7 +967,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45530</v>
       </c>
@@ -937,7 +989,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45527</v>
       </c>
@@ -958,7 +1010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45566</v>
       </c>
@@ -979,7 +1031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45574</v>
       </c>
@@ -1000,11 +1052,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" s="12"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{457D22A4-0C4C-447A-8011-9C1B790FA0E4}"/>
@@ -1019,12 +1071,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Indentidadevisualaula4 xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc" xsi:nil="true"/>
+    <AULASESCRITAS xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1283,23 +1340,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Indentidadevisualaula4 xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc" xsi:nil="true"/>
-    <AULASESCRITAS xmlns="86243fb6-e625-4153-bf24-3dbb8808cb3e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A1C825-A8EC-419E-A2DC-75FD2698093A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B68CD9-6BE8-4E5B-B1AF-081C36CBBFA4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="86243fb6-e625-4153-bf24-3dbb8808cb3e"/>
+    <ds:schemaRef ds:uri="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1324,12 +1379,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45B68CD9-6BE8-4E5B-B1AF-081C36CBBFA4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A1C825-A8EC-419E-A2DC-75FD2698093A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="86243fb6-e625-4153-bf24-3dbb8808cb3e"/>
-    <ds:schemaRef ds:uri="29c85e31-c0e5-4fba-ab60-4fce8ca17cbc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>